--- a/TC4钛合金热处理研究进展/数据汇总表.xlsx
+++ b/TC4钛合金热处理研究进展/数据汇总表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C11868A7-6D16-496E-8B72-CFD2F0E57875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C58DC2F1-99D6-408C-812A-90ED7ACCA2CB}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{C11868A7-6D16-496E-8B72-CFD2F0E57875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5EC00BB-9A28-487C-88FB-A97DC6AF2A9F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>冷却</t>
   </si>
@@ -70,13 +71,31 @@
   </si>
   <si>
     <t>0.2屈强/Mpa</t>
+  </si>
+  <si>
+    <t>实验编号</t>
+  </si>
+  <si>
+    <t>冷却方式</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>液氮</t>
+  </si>
+  <si>
+    <t>时效用时/h</t>
+  </si>
+  <si>
+    <t>处理时间/h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +131,32 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +183,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -162,6 +212,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,15 +517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
@@ -1076,4 +1130,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C58385-1E37-43D0-A9E0-3FE42C887CDE}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>910</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
+        <v>510</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>910</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>590</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>910</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>550</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>950</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>590</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>950</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>550</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>950</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>510</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>990</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>550</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>990</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>510</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>990</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>590</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TC4钛合金热处理研究进展/数据汇总表.xlsx
+++ b/TC4钛合金热处理研究进展/数据汇总表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{C11868A7-6D16-496E-8B72-CFD2F0E57875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5EC00BB-9A28-487C-88FB-A97DC6AF2A9F}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{C11868A7-6D16-496E-8B72-CFD2F0E57875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C93D3FE-307B-4A45-B66A-71F229A817F8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>冷却</t>
   </si>
@@ -89,13 +89,79 @@
   </si>
   <si>
     <t>处理时间/h</t>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>固溶、时效对 ＴＣ４钛合金组织和力学性能的影响</t>
+  </si>
+  <si>
+    <t>制备方式</t>
+  </si>
+  <si>
+    <t>粉末冶金</t>
+  </si>
+  <si>
+    <t>微观组织</t>
+  </si>
+  <si>
+    <t>部 分 粗 大 的α相 与 板 条 状α 相 混 合 在 一 起 ，而 且α相 取 向 杂 乱 ，差 异 比 较 大 ，这 就 导 致 后期力 学 性 能 测 试 时 抗 拉 强 度 较 低。</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>α相晶粒取向杂乱的现象得 到 了部 分改善，晶粒粗大的现象也得到了改善，但 并 未 完 全 消 除，塑性和强度均 有 所 提 高</t>
+  </si>
+  <si>
+    <t>在原来的晶粒相 位上，形 成 了 板 条 状 的α相 组 织，板 条 状α相 组 织 之 间 分布着较为细小 的β 相 转 变 组 织。 这种组织使得材料 的综合力学性能比较好。</t>
+  </si>
+  <si>
+    <t>由于加热温 度 偏 高，β相 有 长 大 的 趋 势，形 成 的β 相 比 较 粗 大 ，造 成 力 学 性 能 下 降</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
+    <t>随着固溶温度的 提 高，伸长率与抗拉强度均增加； 超过一定温度范围后，温 度 越 高，伸长率与抗拉强度反 而下降。综合考虑上述结果，在９３０ °C左右可得到较好 的抗拉强度与伸长率，所以固溶温度选择９３０ °C较为适 宜。</t>
+  </si>
+  <si>
+    <t>）固溶后钛合金中马氏体仍保持α相 软 而 韧 的 性 能，在随后进行的时效强化使得马氏体分解，获 得 弥 散 的α＋β组织，从而进一步提高其抗拉强度。 随 着 时 效 温度的升高，伸长率逐 渐 上 升，但是抗拉强度则呈下降 趋势。</t>
+  </si>
+  <si>
+    <t>脱溶的a相逐渐粗大</t>
+  </si>
+  <si>
+    <t>六方马氏体a'脱溶出a相，针状a'消失</t>
+  </si>
+  <si>
+    <t>脱溶的a与b相逐渐粗大，力学性能下降</t>
+  </si>
+  <si>
+    <t>固溶时效工艺对 TC4 钛合金组织及性能的影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“，在经过(α＋β)两相区固溶 处理后，试样的组织主要为分布较为均匀的α相和 少量转变β相组成。当固溶温度为 870 °C时，组织较 为粗大，多为板条状的α相，且α相的体积分数明显 超过 50%，同时存在一些针状的转变β组织，这是钛 合 金 等 轴 组 织 的 特 征” </t>
+  </si>
+  <si>
+    <t>等轴α相均匀分布，次生α相 呈针状或细条状，同时在α相间存在一定数量的转 变β组织。</t>
+  </si>
+  <si>
+    <t>随着时效温度的升高，细条状的次生α相 通 过 相 界 的 迁 移 发 生 合 并 长 大 ，时 效 温 度 达 到 590 °C时，次生α相变为板状或片状，β相明显减少， 分布不均匀。</t>
+  </si>
+  <si>
+    <t>随着时效温度的升高，试样的抗拉 强度和屈服强度降低，伸长率和断面收缩率提高。 合金的强度降低主要是由次生α相由细条状变为片 状，且β相数量减少，（α＋β）相的弥散强化作用减弱 造成的。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +210,46 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dutch801 XBd BT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Dutch801 XBd BT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Dutch801 XBd BT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Dutch801 XBd BT"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +262,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,10 +282,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,9 +313,41 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 6" xfId="2" builtinId="49"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +362,104 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42042</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>178102</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F8CB17-AD1A-6330-0C80-144E53D1F0CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42042" y="1749565"/>
+          <a:ext cx="1964860" cy="484564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218443</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18AC1B9-3927-338F-6A6B-0CFF060EB891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3145971"/>
+          <a:ext cx="2047242" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -515,620 +760,810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="28.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="12.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="14.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.21875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
         <v>920</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="2">
         <v>450</v>
       </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
         <v>890</v>
       </c>
-      <c r="H2" s="2">
+      <c r="K2" s="15">
         <v>1000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="L2" s="2">
         <v>15</v>
       </c>
-      <c r="J2" s="2">
+      <c r="M2" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
         <v>920</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="G3" s="2">
         <v>500</v>
       </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
         <v>960</v>
       </c>
-      <c r="H3" s="2">
+      <c r="K3" s="15">
         <v>1070</v>
       </c>
-      <c r="I3" s="2">
+      <c r="L3" s="2">
         <v>13.82</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="2">
         <v>38.21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
         <v>960</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="G4" s="2">
         <v>450</v>
       </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2">
         <v>960</v>
       </c>
-      <c r="H4" s="2">
+      <c r="K4" s="15">
         <v>1050</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>15.48</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M4" s="2">
         <v>43.64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
         <v>960</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="G5" s="2">
         <v>500</v>
       </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2">
         <v>1050</v>
       </c>
-      <c r="H5" s="2">
+      <c r="K5" s="15">
         <v>1120</v>
       </c>
-      <c r="I5" s="2">
+      <c r="L5" s="2">
         <v>16.28</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M5" s="2">
         <v>46.22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
         <v>1000</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="G6" s="2">
         <v>450</v>
       </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2">
         <v>1000</v>
       </c>
-      <c r="H6" s="2">
+      <c r="K6" s="15">
         <v>1100</v>
       </c>
-      <c r="I6" s="2">
+      <c r="L6" s="2">
         <v>12.08</v>
       </c>
-      <c r="J6" s="2">
+      <c r="M6" s="2">
         <v>33.049999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
         <v>1000</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="G7" s="2">
         <v>550</v>
       </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
         <v>1020</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="15">
         <v>1100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>10.23</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>30.63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="10">
         <v>870</v>
       </c>
-      <c r="B8" s="3">
+      <c r="E8" s="10">
         <v>0.5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="16">
         <v>887</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="10">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="M8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <v>900</v>
       </c>
-      <c r="B9" s="3">
+      <c r="E9" s="10">
         <v>0.5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="16">
         <v>925</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="10">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="M9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10">
         <v>930</v>
       </c>
-      <c r="B10" s="3">
+      <c r="E10" s="10">
         <v>0.5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="16">
         <v>985</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="10">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="M10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10">
         <v>960</v>
       </c>
-      <c r="B11" s="3">
+      <c r="E11" s="10">
         <v>0.5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="H11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="3">
+      <c r="K11" s="16">
         <v>962</v>
       </c>
-      <c r="I11" s="3">
+      <c r="L11" s="10">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="M11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10">
         <v>930</v>
       </c>
-      <c r="B12" s="3">
+      <c r="E12" s="10">
         <v>0.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="G12" s="10">
         <v>470</v>
       </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="16">
         <v>1055</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="10">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="M12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10">
         <v>930</v>
       </c>
-      <c r="B13" s="3">
+      <c r="E13" s="10">
         <v>0.5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="G13" s="10">
         <v>510</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="H13" s="10">
+        <v>4</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="16">
         <v>1010</v>
       </c>
-      <c r="I13" s="3">
+      <c r="L13" s="10">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="M13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10">
         <v>930</v>
       </c>
-      <c r="B14" s="3">
+      <c r="E14" s="10">
         <v>0.5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="G14" s="10">
         <v>550</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16">
         <v>995</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="10">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="M14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10">
         <v>930</v>
       </c>
-      <c r="B15" s="3">
+      <c r="E15" s="10">
         <v>0.5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="G15" s="10">
         <v>590</v>
       </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="H15" s="10">
+        <v>4</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="16">
         <v>946</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="10">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="M15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13">
         <v>870</v>
       </c>
-      <c r="B16" s="4">
+      <c r="E16" s="13">
         <v>0.5</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
+      <c r="G16" s="13">
         <v>470</v>
       </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="H16" s="13">
+        <v>4</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="13">
         <v>902</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K16" s="17">
         <v>944</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="M16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13">
         <v>900</v>
       </c>
-      <c r="B17" s="4">
+      <c r="E17" s="13">
         <v>0.5</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
+      <c r="G17" s="13">
         <v>470</v>
       </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="H17" s="13">
+        <v>4</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="13">
         <v>935</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K17" s="17">
         <v>986</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="M17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13">
         <v>930</v>
       </c>
-      <c r="B18" s="4">
+      <c r="E18" s="13">
         <v>0.5</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+      <c r="G18" s="13">
         <v>470</v>
       </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="H18" s="13">
+        <v>4</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="13">
         <v>967</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K18" s="17">
         <v>1047</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="M18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1</v>
+      </c>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13">
         <v>960</v>
       </c>
-      <c r="B19" s="4">
+      <c r="E19" s="13">
         <v>0.5</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4">
+      <c r="G19" s="13">
         <v>470</v>
       </c>
-      <c r="E19" s="4">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="H19" s="13">
+        <v>4</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="13">
         <v>1003</v>
       </c>
-      <c r="H19" s="1">
+      <c r="K19" s="17">
         <v>1078</v>
       </c>
-      <c r="I19" s="1">
+      <c r="L19" s="13">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="M19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13">
         <v>960</v>
       </c>
-      <c r="B20" s="4">
+      <c r="E20" s="13">
         <v>0.5</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4">
+      <c r="G20" s="13">
         <v>510</v>
       </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="H20" s="13">
+        <v>4</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="13">
         <v>952</v>
       </c>
-      <c r="H20" s="1">
+      <c r="K20" s="17">
         <v>1039</v>
       </c>
-      <c r="I20" s="1">
+      <c r="L20" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="M20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13">
         <v>960</v>
       </c>
-      <c r="B21" s="4">
+      <c r="E21" s="13">
         <v>0.5</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="G21" s="13">
         <v>550</v>
       </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="H21" s="13">
+        <v>4</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="13">
         <v>927</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K21" s="17">
         <v>993</v>
       </c>
-      <c r="I21" s="1">
+      <c r="L21" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="M21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1</v>
+      </c>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13">
         <v>960</v>
       </c>
-      <c r="B22" s="4">
+      <c r="E22" s="13">
         <v>0.5</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4">
+      <c r="G22" s="13">
         <v>590</v>
       </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="H22" s="13">
+        <v>4</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="13">
         <v>913</v>
       </c>
-      <c r="H22" s="1">
+      <c r="K22" s="17">
         <v>970</v>
       </c>
-      <c r="I22" s="1">
+      <c r="L22" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
+      <c r="M22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="13">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="O12:O15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1136,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C58385-1E37-43D0-A9E0-3FE42C887CDE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/TC4钛合金热处理研究进展/数据汇总表.xlsx
+++ b/TC4钛合金热处理研究进展/数据汇总表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{C11868A7-6D16-496E-8B72-CFD2F0E57875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C93D3FE-307B-4A45-B66A-71F229A817F8}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{C11868A7-6D16-496E-8B72-CFD2F0E57875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E6420F-E0B7-484C-BA1A-684D8816DA06}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sion Tine</author>
+  </authors>
+  <commentList>
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{F351399B-38A5-4A45-98DF-A3A91FCD49AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sion Tine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+规定残余伸长应力</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="45">
   <si>
     <t>冷却</t>
   </si>
@@ -155,13 +190,28 @@
   </si>
   <si>
     <t>随着时效温度的升高，试样的抗拉 强度和屈服强度降低，伸长率和断面收缩率提高。 合金的强度降低主要是由次生α相由细条状变为片 状，且β相数量减少，（α＋β）相的弥散强化作用减弱 造成的。</t>
+  </si>
+  <si>
+    <t>固溶 － 时效对 ＴＣ４ 钛合金显微组织和力学性能的影响 任驰强</t>
+  </si>
+  <si>
+    <t>三次真空自耗电弧炉</t>
+  </si>
+  <si>
+    <t>冷却时间/s</t>
+  </si>
+  <si>
+    <t>用时 /min</t>
+  </si>
+  <si>
+    <t>用时/min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +298,29 @@
       <name val="Dutch801 XBd BT"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +343,18 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,13 +362,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,16 +412,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,13 +429,30 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 5" xfId="4" builtinId="45"/>
     <cellStyle name="着色 6" xfId="2" builtinId="49"/>
+    <cellStyle name="输出" xfId="3" builtinId="21"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,6 +558,143 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>189927</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>72038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243159</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5A7BAB-747F-3DE7-3A39-1CE47D008B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="189927" y="4278278"/>
+          <a:ext cx="1882032" cy="866745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>136060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85525B0-0B8F-437F-A4D9-7F03987F480E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42042" y="1740106"/>
+          <a:ext cx="1964860" cy="481411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218442</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE52F06F-F58B-4FDF-A0EF-B8E96DA88DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3108960"/>
+          <a:ext cx="2047242" cy="302622"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -460,6 +703,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -759,11 +1006,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,17 +1019,18 @@
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="14.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.21875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="8.88671875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.21875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -796,778 +1044,1897 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D2" s="2">
         <v>920</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>450</v>
       </c>
-      <c r="H2" s="2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
+        <v>240</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
         <v>890</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="12">
         <v>1000</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>15</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <v>920</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>500</v>
       </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
+        <v>240</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
         <v>960</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="12">
         <v>1070</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>13.82</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>38.21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D4" s="2">
         <v>960</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>450</v>
       </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
+        <v>240</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
         <v>960</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="12">
         <v>1050</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>15.48</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>43.64</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
         <v>960</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>500</v>
       </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
+        <v>240</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
         <v>1050</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="12">
         <v>1120</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>16.28</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>46.22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <v>1000</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>450</v>
       </c>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
+        <v>240</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2">
         <v>1000</v>
       </c>
-      <c r="K6" s="15">
+      <c r="L6" s="12">
         <v>1100</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>12.08</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>33.049999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
         <v>1000</v>
       </c>
       <c r="E7" s="2">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>550</v>
+      </c>
+      <c r="I7" s="2">
+        <v>240</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1100</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10.23</v>
+      </c>
+      <c r="N7" s="2">
+        <v>30.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="B8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9">
+        <v>870</v>
+      </c>
+      <c r="E8" s="9">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="13">
+        <v>887</v>
+      </c>
+      <c r="M8" s="9">
+        <v>5.22</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9">
+        <v>900</v>
+      </c>
+      <c r="E9" s="9">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="13">
+        <v>925</v>
+      </c>
+      <c r="M9" s="9">
+        <v>5.58</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="9">
+        <v>930</v>
+      </c>
+      <c r="E10" s="9">
+        <v>30</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="13">
+        <v>985</v>
+      </c>
+      <c r="M10" s="9">
+        <v>5.81</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="9">
+        <v>960</v>
+      </c>
+      <c r="E11" s="9">
+        <v>30</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="13">
+        <v>962</v>
+      </c>
+      <c r="M11" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="9">
+        <v>930</v>
+      </c>
+      <c r="E12" s="9">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="9">
+        <v>470</v>
+      </c>
+      <c r="I12" s="9">
+        <v>240</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="13">
+        <v>1055</v>
+      </c>
+      <c r="M12" s="9">
+        <v>4.82</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="9">
+        <v>930</v>
+      </c>
+      <c r="E13" s="9">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="9">
+        <v>510</v>
+      </c>
+      <c r="I13" s="9">
+        <v>240</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="13">
+        <v>1010</v>
+      </c>
+      <c r="M13" s="9">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9">
+        <v>930</v>
+      </c>
+      <c r="E14" s="9">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="9">
         <v>550</v>
       </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1020</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1100</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10.23</v>
-      </c>
-      <c r="M7" s="2">
-        <v>30.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="I14" s="9">
+        <v>240</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="13">
+        <v>995</v>
+      </c>
+      <c r="M14" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="9">
+        <v>930</v>
+      </c>
+      <c r="E15" s="9">
+        <v>30</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="9">
+        <v>590</v>
+      </c>
+      <c r="I15" s="9">
+        <v>240</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="13">
+        <v>946</v>
+      </c>
+      <c r="M15" s="9">
+        <v>6.03</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10">
+        <v>870</v>
+      </c>
+      <c r="E16" s="10">
+        <v>30</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="10">
+        <v>470</v>
+      </c>
+      <c r="I16" s="10">
+        <v>240</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="10">
+        <v>902</v>
+      </c>
+      <c r="L16" s="14">
+        <v>944</v>
+      </c>
+      <c r="M16" s="10">
+        <v>14</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="10">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="P16" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="10">
+        <v>900</v>
+      </c>
+      <c r="E17" s="10">
+        <v>30</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="10">
+        <v>470</v>
+      </c>
+      <c r="I17" s="10">
+        <v>240</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="10">
+        <v>935</v>
+      </c>
+      <c r="L17" s="14">
+        <v>986</v>
+      </c>
+      <c r="M17" s="10">
+        <v>12</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+      <c r="P17" s="18"/>
+    </row>
+    <row r="18" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="10">
+        <v>930</v>
+      </c>
+      <c r="E18" s="10">
+        <v>30</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="10">
+        <v>470</v>
+      </c>
+      <c r="I18" s="10">
+        <v>240</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="10">
+        <v>967</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1047</v>
+      </c>
+      <c r="M18" s="10">
+        <v>11</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="10">
+        <v>1</v>
+      </c>
+      <c r="P18" s="18"/>
+    </row>
+    <row r="19" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="10">
+        <v>960</v>
+      </c>
+      <c r="E19" s="10">
+        <v>30</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="10">
+        <v>470</v>
+      </c>
+      <c r="I19" s="10">
+        <v>240</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1003</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1078</v>
+      </c>
+      <c r="M19" s="10">
+        <v>11</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="10">
+        <v>960</v>
+      </c>
+      <c r="E20" s="10">
+        <v>30</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="10">
+        <v>510</v>
+      </c>
+      <c r="I20" s="10">
+        <v>240</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="10">
+        <v>952</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1039</v>
+      </c>
+      <c r="M20" s="10">
+        <v>13</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="10">
+        <v>960</v>
+      </c>
+      <c r="E21" s="10">
+        <v>30</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="10">
+        <v>550</v>
+      </c>
+      <c r="I21" s="10">
+        <v>240</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="10">
+        <v>927</v>
+      </c>
+      <c r="L21" s="14">
+        <v>993</v>
+      </c>
+      <c r="M21" s="10">
+        <v>14</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18"/>
+    </row>
+    <row r="22" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="10">
+        <v>960</v>
+      </c>
+      <c r="E22" s="10">
+        <v>30</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="10">
+        <v>590</v>
+      </c>
+      <c r="I22" s="10">
+        <v>240</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="10">
+        <v>913</v>
+      </c>
+      <c r="L22" s="14">
+        <v>970</v>
+      </c>
+      <c r="M22" s="10">
+        <v>14</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="10">
+        <v>1</v>
+      </c>
+      <c r="P22" s="18"/>
+    </row>
+    <row r="23" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>3</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="19">
+        <v>954</v>
+      </c>
+      <c r="E23" s="19">
+        <v>60</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="20">
+        <v>10</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="19">
+        <v>968</v>
+      </c>
+      <c r="L23" s="19">
+        <v>1098</v>
+      </c>
+      <c r="M23" s="19">
+        <v>18</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="19">
+        <v>954</v>
+      </c>
+      <c r="E24" s="19">
+        <v>60</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20">
+        <v>10</v>
+      </c>
+      <c r="H24" s="19">
+        <v>550</v>
+      </c>
+      <c r="I24" s="19">
+        <v>270</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="19">
+        <v>1056</v>
+      </c>
+      <c r="L24" s="19">
+        <v>1157</v>
+      </c>
+      <c r="M24" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="19">
+        <v>954</v>
+      </c>
+      <c r="E25" s="19">
+        <v>60</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="20">
+        <v>15</v>
+      </c>
+      <c r="H25" s="19">
+        <v>550</v>
+      </c>
+      <c r="I25" s="19">
+        <v>270</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="19">
+        <v>1054</v>
+      </c>
+      <c r="L25" s="19">
+        <v>1147</v>
+      </c>
+      <c r="M25" s="19">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="19">
+        <v>954</v>
+      </c>
+      <c r="E26" s="19">
+        <v>60</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="20">
         <v>20</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10">
-        <v>870</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="16">
-        <v>887</v>
-      </c>
-      <c r="L8" s="10">
-        <v>5.22</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10">
-        <v>900</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="16">
-        <v>925</v>
-      </c>
-      <c r="L9" s="10">
-        <v>5.58</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10">
-        <v>930</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="16">
-        <v>985</v>
-      </c>
-      <c r="L10" s="10">
-        <v>5.81</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10">
-        <v>960</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="16">
-        <v>962</v>
-      </c>
-      <c r="L11" s="10">
-        <v>3.78</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10">
-        <v>930</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="10">
-        <v>470</v>
-      </c>
-      <c r="H12" s="10">
-        <v>4</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1055</v>
-      </c>
-      <c r="L12" s="10">
-        <v>4.82</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10">
-        <v>930</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="10">
-        <v>510</v>
-      </c>
-      <c r="H13" s="10">
-        <v>4</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="16">
+      <c r="H26" s="19">
+        <v>550</v>
+      </c>
+      <c r="I26" s="19">
+        <v>270</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1040</v>
+      </c>
+      <c r="L26" s="19">
+        <v>1144</v>
+      </c>
+      <c r="M26" s="19">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="19">
+        <v>954</v>
+      </c>
+      <c r="E27" s="19">
+        <v>60</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20">
+        <v>10</v>
+      </c>
+      <c r="H27" s="19">
+        <v>580</v>
+      </c>
+      <c r="I27" s="19">
+        <v>300</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1022</v>
+      </c>
+      <c r="L27" s="19">
+        <v>1128</v>
+      </c>
+      <c r="M27" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="19">
+        <v>954</v>
+      </c>
+      <c r="E28" s="19">
+        <v>60</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="20">
+        <v>10</v>
+      </c>
+      <c r="H28" s="19">
+        <v>550</v>
+      </c>
+      <c r="I28" s="19">
+        <v>300</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="19">
+        <v>1061</v>
+      </c>
+      <c r="L28" s="19">
+        <v>1177</v>
+      </c>
+      <c r="M28" s="19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="19">
+        <v>954</v>
+      </c>
+      <c r="E29" s="19">
+        <v>60</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="20">
+        <v>10</v>
+      </c>
+      <c r="H29" s="19">
+        <v>530</v>
+      </c>
+      <c r="I29" s="19">
+        <v>300</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1042</v>
+      </c>
+      <c r="L29" s="19">
+        <v>1141</v>
+      </c>
+      <c r="M29" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="19">
+        <v>954</v>
+      </c>
+      <c r="E30" s="19">
+        <v>60</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="20">
+        <v>10</v>
+      </c>
+      <c r="H30" s="19">
+        <v>490</v>
+      </c>
+      <c r="I30" s="19">
+        <v>300</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="19">
         <v>1010</v>
       </c>
-      <c r="L13" s="10">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10">
-        <v>930</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="10">
-        <v>550</v>
-      </c>
-      <c r="H14" s="10">
-        <v>4</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="16">
-        <v>995</v>
-      </c>
-      <c r="L14" s="10">
-        <v>5.25</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10">
-        <v>930</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="10">
-        <v>590</v>
-      </c>
-      <c r="H15" s="10">
-        <v>4</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="16">
-        <v>946</v>
-      </c>
-      <c r="L15" s="10">
-        <v>6.03</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>2</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="13">
-        <v>870</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="13">
-        <v>470</v>
-      </c>
-      <c r="H16" s="13">
-        <v>4</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="13">
-        <v>902</v>
-      </c>
-      <c r="K16" s="17">
-        <v>944</v>
-      </c>
-      <c r="L16" s="13">
-        <v>14</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="13">
-        <v>1</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13">
-        <v>900</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="13">
-        <v>470</v>
-      </c>
-      <c r="H17" s="13">
-        <v>4</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="13">
-        <v>935</v>
-      </c>
-      <c r="K17" s="17">
-        <v>986</v>
-      </c>
-      <c r="L17" s="13">
-        <v>12</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="13">
-        <v>1</v>
-      </c>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13">
-        <v>930</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="13">
-        <v>470</v>
-      </c>
-      <c r="H18" s="13">
-        <v>4</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="13">
-        <v>967</v>
-      </c>
-      <c r="K18" s="17">
-        <v>1047</v>
-      </c>
-      <c r="L18" s="13">
-        <v>11</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="13">
-        <v>1</v>
-      </c>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13">
-        <v>960</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="13">
-        <v>470</v>
-      </c>
-      <c r="H19" s="13">
-        <v>4</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="13">
-        <v>1003</v>
-      </c>
-      <c r="K19" s="17">
-        <v>1078</v>
-      </c>
-      <c r="L19" s="13">
-        <v>11</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13">
-        <v>960</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="13">
-        <v>510</v>
-      </c>
-      <c r="H20" s="13">
-        <v>4</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="13">
-        <v>952</v>
-      </c>
-      <c r="K20" s="17">
-        <v>1039</v>
-      </c>
-      <c r="L20" s="13">
-        <v>13</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13">
-        <v>960</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="13">
-        <v>550</v>
-      </c>
-      <c r="H21" s="13">
-        <v>4</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="13">
-        <v>927</v>
-      </c>
-      <c r="K21" s="17">
-        <v>993</v>
-      </c>
-      <c r="L21" s="13">
-        <v>14</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="13">
-        <v>1</v>
-      </c>
-      <c r="O21" s="18"/>
-    </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13">
-        <v>960</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="13">
-        <v>590</v>
-      </c>
-      <c r="H22" s="13">
-        <v>4</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="13">
-        <v>913</v>
-      </c>
-      <c r="K22" s="17">
-        <v>970</v>
-      </c>
-      <c r="L22" s="13">
-        <v>14</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="13">
-        <v>1</v>
-      </c>
-      <c r="O22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="3"/>
+      <c r="L30" s="19">
+        <v>1123</v>
+      </c>
+      <c r="M30" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="19">
+        <v>954</v>
+      </c>
+      <c r="E31" s="19">
+        <v>60</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="20">
+        <v>10</v>
+      </c>
+      <c r="H31" s="19">
+        <v>490</v>
+      </c>
+      <c r="I31" s="19">
+        <v>480</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="19">
+        <v>1122</v>
+      </c>
+      <c r="M31" s="19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="P16:P18"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="C8:C15"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="P12:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F92A40-9A84-4FF6-8869-37DE3C05B857}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>920</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>450</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>890</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>920</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>960</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1070</v>
+      </c>
+      <c r="I3" s="2">
+        <v>13.82</v>
+      </c>
+      <c r="J3" s="2">
+        <v>38.21</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>960</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>450</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>960</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1050</v>
+      </c>
+      <c r="I4" s="2">
+        <v>15.48</v>
+      </c>
+      <c r="J4" s="2">
+        <v>43.64</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>960</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>500</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1050</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1120</v>
+      </c>
+      <c r="I5" s="2">
+        <v>16.28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>46.22</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>450</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>12.08</v>
+      </c>
+      <c r="J6" s="2">
+        <v>33.049999999999997</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>550</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1020</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10.23</v>
+      </c>
+      <c r="J7" s="2">
+        <v>30.63</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>870</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="13">
+        <v>887</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5.22</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>900</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13">
+        <v>925</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5.58</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>930</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="13">
+        <v>985</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5.81</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>960</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="13">
+        <v>962</v>
+      </c>
+      <c r="I11" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>930</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>470</v>
+      </c>
+      <c r="E12" s="9">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="13">
+        <v>1055</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4.82</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>930</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>510</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="13">
+        <v>1010</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>930</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <v>550</v>
+      </c>
+      <c r="E14" s="9">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="13">
+        <v>995</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5.25</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>930</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <v>590</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="13">
+        <v>946</v>
+      </c>
+      <c r="I15" s="9">
+        <v>6.03</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>870</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <v>470</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>902</v>
+      </c>
+      <c r="H16" s="14">
+        <v>944</v>
+      </c>
+      <c r="I16" s="10">
+        <v>14</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>900</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>470</v>
+      </c>
+      <c r="E17" s="10">
+        <v>4</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10">
+        <v>935</v>
+      </c>
+      <c r="H17" s="14">
+        <v>986</v>
+      </c>
+      <c r="I17" s="10">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>930</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>470</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10">
+        <v>967</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1047</v>
+      </c>
+      <c r="I18" s="10">
+        <v>11</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>960</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>470</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1003</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1078</v>
+      </c>
+      <c r="I19" s="10">
+        <v>11</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>960</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>510</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="10">
+        <v>952</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1039</v>
+      </c>
+      <c r="I20" s="10">
+        <v>13</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>960</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <v>550</v>
+      </c>
+      <c r="E21" s="10">
+        <v>4</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10">
+        <v>927</v>
+      </c>
+      <c r="H21" s="14">
+        <v>993</v>
+      </c>
+      <c r="I21" s="10">
+        <v>14</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>960</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>590</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="10">
+        <v>913</v>
+      </c>
+      <c r="H22" s="14">
+        <v>970</v>
+      </c>
+      <c r="I22" s="10">
+        <v>14</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C58385-1E37-43D0-A9E0-3FE42C887CDE}">
   <dimension ref="A1:H10"/>
   <sheetViews>

--- a/TC4钛合金热处理研究进展/数据汇总表.xlsx
+++ b/TC4钛合金热处理研究进展/数据汇总表.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C11868A7-6D16-496E-8B72-CFD2F0E57875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E6420F-E0B7-484C-BA1A-684D8816DA06}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CB9A60-A961-4EB1-BD5C-CA1C2A5F1DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="热处理实验" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="48">
   <si>
     <t>冷却</t>
   </si>
@@ -205,13 +206,22 @@
   </si>
   <si>
     <t>用时/min</t>
+  </si>
+  <si>
+    <t>固溶温度对Ti6Al4V ELI钛合金显微组织 及性能的影响</t>
+  </si>
+  <si>
+    <t>三次真空自耗电弧熔炼</t>
+  </si>
+  <si>
+    <t>断裂韧性Mpa * m^0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,14 +309,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -320,7 +322,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,16 +347,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -362,28 +359,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -429,6 +410,12 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -441,18 +428,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 5" xfId="4" builtinId="45"/>
+    <cellStyle name="着色 5" xfId="3" builtinId="45"/>
     <cellStyle name="着色 6" xfId="2" builtinId="49"/>
-    <cellStyle name="输出" xfId="3" builtinId="21"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,6 +582,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E68BC2-5A0E-B114-8139-8FD93E892DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="87086" y="5991621"/>
+          <a:ext cx="1759131" cy="314202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -707,6 +731,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1007,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,18 +1047,18 @@
     <col min="4" max="4" width="14.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
     <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="12.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" style="11" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="14.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34.21875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="15" width="26.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="34.21875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1049,7 +1077,7 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1074,13 +1102,16 @@
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D2" s="2">
         <v>920</v>
       </c>
@@ -1111,8 +1142,11 @@
       <c r="N2" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <v>920</v>
       </c>
@@ -1143,8 +1177,11 @@
       <c r="N3" s="2">
         <v>38.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D4" s="2">
         <v>960</v>
       </c>
@@ -1175,8 +1212,11 @@
       <c r="N4" s="2">
         <v>43.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
         <v>960</v>
       </c>
@@ -1207,8 +1247,11 @@
       <c r="N5" s="2">
         <v>46.22</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <v>1000</v>
       </c>
@@ -1239,8 +1282,11 @@
       <c r="N6" s="2">
         <v>33.049999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
         <v>1000</v>
       </c>
@@ -1271,15 +1317,18 @@
       <c r="N7" s="2">
         <v>30.63</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="9">
@@ -1291,7 +1340,6 @@
       <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1308,16 +1356,19 @@
         <v>25</v>
       </c>
       <c r="O8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="Q8" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="9">
         <v>900</v>
       </c>
@@ -1327,7 +1378,6 @@
       <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1344,14 +1394,17 @@
         <v>25</v>
       </c>
       <c r="O9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="9">
         <v>930</v>
       </c>
@@ -1361,7 +1414,6 @@
       <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1378,14 +1430,17 @@
         <v>25</v>
       </c>
       <c r="O10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="9">
         <v>960</v>
       </c>
@@ -1395,7 +1450,6 @@
       <c r="F11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1412,14 +1466,17 @@
         <v>25</v>
       </c>
       <c r="O11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="9">
         <v>930</v>
       </c>
@@ -1429,7 +1486,6 @@
       <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="20"/>
       <c r="H12" s="9">
         <v>470</v>
       </c>
@@ -1449,16 +1505,19 @@
         <v>25</v>
       </c>
       <c r="O12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="Q12" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+    <row r="13" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="9">
         <v>930</v>
       </c>
@@ -1468,7 +1527,6 @@
       <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="20"/>
       <c r="H13" s="9">
         <v>510</v>
       </c>
@@ -1488,14 +1546,17 @@
         <v>25</v>
       </c>
       <c r="O13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="9">
         <v>930</v>
       </c>
@@ -1505,7 +1566,6 @@
       <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="20"/>
       <c r="H14" s="9">
         <v>550</v>
       </c>
@@ -1525,14 +1585,17 @@
         <v>25</v>
       </c>
       <c r="O14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="9">
         <v>930</v>
       </c>
@@ -1542,7 +1605,6 @@
       <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="20"/>
       <c r="H15" s="9">
         <v>590</v>
       </c>
@@ -1561,16 +1623,19 @@
       <c r="N15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="O15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>2</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="10">
@@ -1582,7 +1647,6 @@
       <c r="F16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="20"/>
       <c r="H16" s="10">
         <v>470</v>
       </c>
@@ -1601,20 +1665,23 @@
       <c r="M16" s="10">
         <v>14</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="10">
+      <c r="N16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="10">
         <v>1</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="Q16" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+    <row r="17" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="10">
         <v>900</v>
       </c>
@@ -1624,7 +1691,6 @@
       <c r="F17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="20"/>
       <c r="H17" s="10">
         <v>470</v>
       </c>
@@ -1643,18 +1709,21 @@
       <c r="M17" s="10">
         <v>12</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="10">
+      <c r="N17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="10">
         <v>1</v>
       </c>
-      <c r="P17" s="18"/>
-    </row>
-    <row r="18" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="10">
         <v>930</v>
       </c>
@@ -1664,7 +1733,6 @@
       <c r="F18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="20"/>
       <c r="H18" s="10">
         <v>470</v>
       </c>
@@ -1683,18 +1751,21 @@
       <c r="M18" s="10">
         <v>11</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="10">
+      <c r="N18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="10">
         <v>1</v>
       </c>
-      <c r="P18" s="18"/>
-    </row>
-    <row r="19" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="10">
         <v>960</v>
       </c>
@@ -1704,7 +1775,6 @@
       <c r="F19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="20"/>
       <c r="H19" s="10">
         <v>470</v>
       </c>
@@ -1723,20 +1793,23 @@
       <c r="M19" s="10">
         <v>11</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="10" t="s">
         <v>25</v>
       </c>
       <c r="O19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="Q19" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+    <row r="20" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="10">
         <v>960</v>
       </c>
@@ -1746,7 +1819,6 @@
       <c r="F20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="20"/>
       <c r="H20" s="10">
         <v>510</v>
       </c>
@@ -1765,18 +1837,21 @@
       <c r="M20" s="10">
         <v>13</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="10">
         <v>960</v>
       </c>
@@ -1786,7 +1861,6 @@
       <c r="F21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="20"/>
       <c r="H21" s="10">
         <v>550</v>
       </c>
@@ -1805,18 +1879,21 @@
       <c r="M21" s="10">
         <v>14</v>
       </c>
-      <c r="N21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="10">
+      <c r="N21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="10">
         <v>1</v>
       </c>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="10">
         <v>960</v>
       </c>
@@ -1826,7 +1903,6 @@
       <c r="F22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="20"/>
       <c r="H22" s="10">
         <v>590</v>
       </c>
@@ -1845,329 +1921,529 @@
       <c r="M22" s="10">
         <v>14</v>
       </c>
-      <c r="N22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="10">
+      <c r="N22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="10">
         <v>1</v>
       </c>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
-        <v>3</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>3</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="15">
         <v>954</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="15">
         <v>60</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="20">
+      <c r="F23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15">
         <v>10</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="15">
         <v>968</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="15">
         <v>1098</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="15">
         <v>18</v>
       </c>
-      <c r="N23" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="19">
+      <c r="N23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="15">
         <v>954</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="15">
         <v>60</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="20">
+      <c r="F24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="15">
         <v>10</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="15">
         <v>550</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="15">
         <v>270</v>
       </c>
-      <c r="J24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="19">
+      <c r="J24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="15">
         <v>1056</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="15">
         <v>1157</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="19">
+      <c r="N24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="15">
         <v>954</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <v>60</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="20">
+      <c r="F25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="15">
         <v>15</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="15">
         <v>550</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="15">
         <v>270</v>
       </c>
-      <c r="J25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="19">
+      <c r="J25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="15">
         <v>1054</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="15">
         <v>1147</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="15">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="19">
+      <c r="N25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="15">
         <v>954</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="15">
         <v>60</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="20">
+      <c r="F26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="15">
         <v>20</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="15">
         <v>550</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="15">
         <v>270</v>
       </c>
-      <c r="J26" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="19">
+      <c r="J26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="15">
         <v>1040</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="15">
         <v>1144</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="15">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="19">
+      <c r="N26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="15">
         <v>954</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="15">
         <v>60</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="20">
+      <c r="F27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="15">
         <v>10</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="15">
         <v>580</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="15">
         <v>300</v>
       </c>
-      <c r="J27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="J27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="15">
         <v>1022</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="15">
         <v>1128</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="19">
+      <c r="N27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="15">
         <v>954</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="15">
         <v>60</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="20">
+      <c r="F28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15">
         <v>10</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="15">
         <v>550</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="15">
         <v>300</v>
       </c>
-      <c r="J28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="19">
+      <c r="J28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="15">
         <v>1061</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="15">
         <v>1177</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="15">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="19">
+      <c r="N28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="15">
         <v>954</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="15">
         <v>60</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="20">
+      <c r="F29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="15">
         <v>10</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="15">
         <v>530</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="15">
         <v>300</v>
       </c>
-      <c r="J29" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="19">
+      <c r="J29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="15">
         <v>1042</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="15">
         <v>1141</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="19">
+      <c r="N29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="15">
         <v>954</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="15">
         <v>60</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="20">
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15">
         <v>10</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="15">
         <v>490</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="15">
         <v>300</v>
       </c>
-      <c r="J30" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="19">
+      <c r="J30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="15">
         <v>1010</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="15">
         <v>1123</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="15">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="19">
+      <c r="N30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="15">
         <v>954</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="15">
         <v>60</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="20">
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="15">
         <v>10</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="15">
         <v>490</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="15">
         <v>480</v>
       </c>
-      <c r="J31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="19">
+      <c r="J31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="15">
         <v>1000</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="15">
         <v>1122</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="15">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="3"/>
+      <c r="N31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>952</v>
+      </c>
+      <c r="E32" s="3">
+        <v>120</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>730</v>
+      </c>
+      <c r="I32" s="1">
+        <v>240</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <v>846</v>
+      </c>
+      <c r="L32" s="11">
+        <v>915</v>
+      </c>
+      <c r="M32" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D33" s="1">
+        <v>967</v>
+      </c>
+      <c r="E33" s="3">
+        <v>120</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>730</v>
+      </c>
+      <c r="I33" s="1">
+        <v>240</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>801</v>
+      </c>
+      <c r="L33" s="11">
+        <v>875</v>
+      </c>
+      <c r="M33" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D34" s="1">
+        <v>997</v>
+      </c>
+      <c r="E34" s="3">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>730</v>
+      </c>
+      <c r="I34" s="1">
+        <v>240</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>792</v>
+      </c>
+      <c r="L34" s="11">
+        <v>861</v>
+      </c>
+      <c r="M34" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D35" s="1">
+        <v>1012</v>
+      </c>
+      <c r="E35" s="3">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>730</v>
+      </c>
+      <c r="I35" s="1">
+        <v>240</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1">
+        <v>775</v>
+      </c>
+      <c r="L35" s="11">
+        <v>843</v>
+      </c>
+      <c r="M35" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="Q16:Q18"/>
     <mergeCell ref="A8:A15"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="C8:C15"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="Q8:Q11"/>
+    <mergeCell ref="Q12:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2181,7 +2457,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2734,7 @@
       <c r="K8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2490,7 +2766,7 @@
       <c r="K9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
@@ -2520,7 +2796,7 @@
       <c r="K10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="16"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
@@ -2550,7 +2826,7 @@
       <c r="K11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
@@ -2582,7 +2858,7 @@
       <c r="K12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2616,7 +2892,7 @@
       <c r="K13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2648,7 +2924,7 @@
       <c r="K14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
@@ -2678,7 +2954,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="9"/>
-      <c r="L15" s="16"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -2712,7 +2988,7 @@
       <c r="K16" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="20" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2748,7 +3024,7 @@
       <c r="K17" s="10">
         <v>1</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -2782,7 +3058,7 @@
       <c r="K18" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -2816,7 +3092,7 @@
       <c r="K19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2852,7 +3128,7 @@
       <c r="K20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -2886,7 +3162,7 @@
       <c r="K21" s="10">
         <v>1</v>
       </c>
-      <c r="L21" s="18"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -2920,7 +3196,7 @@
       <c r="K22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="18"/>
+      <c r="L22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/TC4钛合金热处理研究进展/数据汇总表.xlsx
+++ b/TC4钛合金热处理研究进展/数据汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6ef72d3e05109b7/本科毕业论文/论文/TC4钛合金热处理研究进展/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1CB9A60-A961-4EB1-BD5C-CA1C2A5F1DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{A1CB9A60-A961-4EB1-BD5C-CA1C2A5F1DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DCD44AF-17C5-4591-A934-00D513DD2A2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29D016F3-758B-4E4B-AC10-63C3129748CA}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="热处理实验" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
     <author>Sion Tine</author>
   </authors>
   <commentList>
-    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{F351399B-38A5-4A45-98DF-A3A91FCD49AB}">
+    <comment ref="K17" authorId="0" shapeId="0" xr:uid="{F351399B-38A5-4A45-98DF-A3A91FCD49AB}">
       <text>
         <r>
           <rPr>
@@ -66,12 +65,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{34F2DF21-CB76-4ED0-9060-9B22388DAE45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sion Tine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+对照组看作室温时效</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="59">
   <si>
     <t>冷却</t>
   </si>
@@ -215,6 +238,39 @@
   </si>
   <si>
     <t>断裂韧性Mpa * m^0.5</t>
+  </si>
+  <si>
+    <t>时效处理对 TC4 钛合金微观组织和力学性能的影响</t>
+  </si>
+  <si>
+    <t>棒材</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Effect of Different Heat Treatments on Microstructure and Mechanical Properties of Ti6Al4V Titanium Alloy</t>
+  </si>
+  <si>
+    <t>热轧</t>
+  </si>
+  <si>
+    <t>固溶时效对 TC4 合金组织与机械性能的影响</t>
+  </si>
+  <si>
+    <t>二次真空自 耗熔炼</t>
+  </si>
+  <si>
+    <t>固溶时效对 TC4 合金组织与性能的影响</t>
+  </si>
+  <si>
+    <t>电弧炉</t>
+  </si>
+  <si>
+    <t>1 954</t>
+  </si>
+  <si>
+    <t>热处理工艺对 TC4 钛合金组织和力学性能的影响</t>
   </si>
 </sst>
 </file>
@@ -239,13 +295,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Adobe 仿宋 Std R"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Adobe 仿宋 Std R"/>
       <family val="1"/>
       <charset val="128"/>
@@ -321,8 +370,15 @@
       <name val="宋体"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +406,36 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,13 +446,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,56 +471,81 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
+    <cellStyle name="20% - 着色 2" xfId="4" builtinId="34"/>
+    <cellStyle name="40% - 着色 5" xfId="7" builtinId="47"/>
+    <cellStyle name="60% - 着色 2" xfId="5" builtinId="36"/>
+    <cellStyle name="60% - 着色 4" xfId="6" builtinId="44"/>
+    <cellStyle name="60% - 着色 6" xfId="8" builtinId="52"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 5" xfId="3" builtinId="45"/>
     <cellStyle name="着色 6" xfId="2" builtinId="49"/>
@@ -454,14 +570,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>42042</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>94186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>178102</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>26957</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -498,14 +614,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>218443</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -542,13 +658,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>189927</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>72038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>243159</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>24383</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -586,14 +702,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>139461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>17417</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>87903</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87902</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -618,6 +734,182 @@
         <a:xfrm>
           <a:off x="87086" y="5991621"/>
           <a:ext cx="1759131" cy="314202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138208</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369226</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F43496A-CA6A-B474-5272-9D75A11CEDA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="138208" y="7847806"/>
+          <a:ext cx="1450218" cy="520947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64169</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>98005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402649</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C33E9EA-0F56-B353-D6C3-6E35FE46CFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64169" y="9137731"/>
+          <a:ext cx="1557680" cy="391377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17585</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>81592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556847</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>126375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09A1CBB-FF0D-A066-2728-8A799E1D8608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17585" y="10257223"/>
+          <a:ext cx="1758462" cy="226490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208548</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>69191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>525379</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>14646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{415EB00E-E706-4F0B-9B9A-F6EEF610DBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="208548" y="11876180"/>
+          <a:ext cx="1536031" cy="498908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -735,6 +1027,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1035,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D6EDF3-9CBC-44F8-B387-6FD1F91538BB}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1347,7 @@
     <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="12.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="10" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="1"/>
     <col min="14" max="15" width="26.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="34.21875" style="1" customWidth="1"/>
@@ -1077,7 +1373,7 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1092,7 +1388,7 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1111,302 +1407,337 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D2" s="2">
-        <v>920</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>450</v>
-      </c>
-      <c r="I2" s="2">
+    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8">
+        <v>870</v>
+      </c>
+      <c r="E2" s="8">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="12">
+        <v>887</v>
+      </c>
+      <c r="M2" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="8">
+        <v>900</v>
+      </c>
+      <c r="E3" s="8">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12">
+        <v>925</v>
+      </c>
+      <c r="M3" s="8">
+        <v>5.58</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="8">
+        <v>930</v>
+      </c>
+      <c r="E4" s="8">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12">
+        <v>985</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5.81</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="8">
+        <v>960</v>
+      </c>
+      <c r="E5" s="8">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="12">
+        <v>962</v>
+      </c>
+      <c r="M5" s="8">
+        <v>3.78</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="8">
+        <v>930</v>
+      </c>
+      <c r="E6" s="8">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>470</v>
+      </c>
+      <c r="I6" s="8">
         <v>240</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2">
-        <v>890</v>
-      </c>
-      <c r="L2" s="12">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2">
-        <v>40</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D3" s="2">
-        <v>920</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>500</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="J6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1055</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4.82</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="8">
+        <v>930</v>
+      </c>
+      <c r="E7" s="8">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>510</v>
+      </c>
+      <c r="I7" s="8">
         <v>240</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2">
-        <v>960</v>
-      </c>
-      <c r="L3" s="12">
-        <v>1070</v>
-      </c>
-      <c r="M3" s="2">
-        <v>13.82</v>
-      </c>
-      <c r="N3" s="2">
-        <v>38.21</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="2">
-        <v>960</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>450</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="J7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1010</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="8">
+        <v>930</v>
+      </c>
+      <c r="E8" s="8">
+        <v>30</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>550</v>
+      </c>
+      <c r="I8" s="8">
         <v>240</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
-        <v>960</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1050</v>
-      </c>
-      <c r="M4" s="2">
-        <v>15.48</v>
-      </c>
-      <c r="N4" s="2">
-        <v>43.64</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="2">
-        <v>960</v>
-      </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>500</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="J8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12">
+        <v>995</v>
+      </c>
+      <c r="M8" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="8">
+        <v>930</v>
+      </c>
+      <c r="E9" s="8">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>590</v>
+      </c>
+      <c r="I9" s="8">
         <v>240</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1050</v>
-      </c>
-      <c r="L5" s="12">
-        <v>1120</v>
-      </c>
-      <c r="M5" s="2">
-        <v>16.28</v>
-      </c>
-      <c r="N5" s="2">
-        <v>46.22</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>450</v>
-      </c>
-      <c r="I6" s="2">
-        <v>240</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="12">
-        <v>1100</v>
-      </c>
-      <c r="M6" s="2">
-        <v>12.08</v>
-      </c>
-      <c r="N6" s="2">
-        <v>33.049999999999997</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>550</v>
-      </c>
-      <c r="I7" s="2">
-        <v>240</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1020</v>
-      </c>
-      <c r="L7" s="12">
-        <v>1100</v>
-      </c>
-      <c r="M7" s="2">
-        <v>10.23</v>
-      </c>
-      <c r="N7" s="2">
-        <v>30.63</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="J9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12">
+        <v>946</v>
+      </c>
+      <c r="M9" s="8">
+        <v>6.03</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D10" s="9">
         <v>870</v>
-      </c>
-      <c r="E8" s="9">
-        <v>30</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="13">
-        <v>887</v>
-      </c>
-      <c r="M8" s="9">
-        <v>5.22</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="9">
-        <v>900</v>
-      </c>
-      <c r="E9" s="9">
-        <v>30</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="13">
-        <v>925</v>
-      </c>
-      <c r="M9" s="9">
-        <v>5.58</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="9">
-        <v>930</v>
       </c>
       <c r="E10" s="9">
         <v>30</v>
@@ -1414,17 +1745,23 @@
       <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>8</v>
+      <c r="H10" s="9">
+        <v>470</v>
+      </c>
+      <c r="I10" s="9">
+        <v>240</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="9">
+        <v>902</v>
       </c>
       <c r="L10" s="13">
-        <v>985</v>
+        <v>944</v>
       </c>
       <c r="M10" s="9">
-        <v>5.81</v>
+        <v>14</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>25</v>
@@ -1432,17 +1769,19 @@
       <c r="O10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="18"/>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="9">
-        <v>960</v>
+        <v>900</v>
       </c>
       <c r="E11" s="9">
         <v>30</v>
@@ -1450,17 +1789,23 @@
       <c r="F11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>8</v>
+      <c r="H11" s="9">
+        <v>470</v>
+      </c>
+      <c r="I11" s="9">
+        <v>240</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9">
+        <v>935</v>
       </c>
       <c r="L11" s="13">
-        <v>962</v>
+        <v>986</v>
       </c>
       <c r="M11" s="9">
-        <v>3.78</v>
+        <v>12</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>25</v>
@@ -1468,15 +1813,15 @@
       <c r="O11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="18"/>
+      <c r="P11" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="9">
         <v>930</v>
       </c>
@@ -1495,11 +1840,14 @@
       <c r="J12" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="K12" s="9">
+        <v>967</v>
+      </c>
       <c r="L12" s="13">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="M12" s="9">
-        <v>4.82</v>
+        <v>11</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>25</v>
@@ -1507,19 +1855,17 @@
       <c r="O12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="9">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="E13" s="9">
         <v>30</v>
@@ -1528,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="9">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="I13" s="9">
         <v>240</v>
@@ -1536,11 +1882,14 @@
       <c r="J13" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="K13" s="9">
+        <v>1003</v>
+      </c>
       <c r="L13" s="13">
-        <v>1010</v>
+        <v>1078</v>
       </c>
       <c r="M13" s="9">
-        <v>4.4800000000000004</v>
+        <v>11</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>25</v>
@@ -1549,16 +1898,18 @@
         <v>25</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="9">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="E14" s="9">
         <v>30</v>
@@ -1567,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="9">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="I14" s="9">
         <v>240</v>
@@ -1575,11 +1926,14 @@
       <c r="J14" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="K14" s="9">
+        <v>952</v>
+      </c>
       <c r="L14" s="13">
-        <v>995</v>
+        <v>1039</v>
       </c>
       <c r="M14" s="9">
-        <v>5.25</v>
+        <v>13</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>25</v>
@@ -1588,16 +1942,16 @@
         <v>25</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9">
-        <v>930</v>
+        <v>960</v>
       </c>
       <c r="E15" s="9">
         <v>30</v>
@@ -1606,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="9">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="I15" s="9">
         <v>240</v>
@@ -1614,11 +1968,14 @@
       <c r="J15" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="K15" s="9">
+        <v>927</v>
+      </c>
       <c r="L15" s="13">
-        <v>946</v>
+        <v>993</v>
       </c>
       <c r="M15" s="9">
-        <v>6.03</v>
+        <v>14</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>25</v>
@@ -1626,824 +1983,1610 @@
       <c r="O15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="10">
-        <v>870</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9">
+        <v>960</v>
+      </c>
+      <c r="E16" s="9">
         <v>30</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="10">
-        <v>470</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="F16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>590</v>
+      </c>
+      <c r="I16" s="9">
         <v>240</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="10">
-        <v>902</v>
-      </c>
-      <c r="L16" s="14">
-        <v>944</v>
-      </c>
-      <c r="M16" s="10">
+      <c r="J16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="9">
+        <v>913</v>
+      </c>
+      <c r="L16" s="13">
+        <v>970</v>
+      </c>
+      <c r="M16" s="9">
         <v>14</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="10">
+      <c r="N16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="9">
         <v>1</v>
       </c>
-      <c r="Q16" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="10">
-        <v>900</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="14">
+        <v>954</v>
+      </c>
+      <c r="E17" s="14">
+        <v>60</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>10</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="14">
+        <v>968</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1098</v>
+      </c>
+      <c r="M17" s="14">
+        <v>18</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="14">
+        <v>954</v>
+      </c>
+      <c r="E18" s="14">
+        <v>60</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14">
+        <v>10</v>
+      </c>
+      <c r="H18" s="14">
+        <v>550</v>
+      </c>
+      <c r="I18" s="14">
+        <v>270</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1056</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1157</v>
+      </c>
+      <c r="M18" s="14">
+        <v>16</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="14">
+        <v>954</v>
+      </c>
+      <c r="E19" s="14">
+        <v>60</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14">
+        <v>15</v>
+      </c>
+      <c r="H19" s="14">
+        <v>550</v>
+      </c>
+      <c r="I19" s="14">
+        <v>270</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1054</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1147</v>
+      </c>
+      <c r="M19" s="14">
+        <v>17.5</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="14">
+        <v>954</v>
+      </c>
+      <c r="E20" s="14">
+        <v>60</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>20</v>
+      </c>
+      <c r="H20" s="14">
+        <v>550</v>
+      </c>
+      <c r="I20" s="14">
+        <v>270</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="14">
+        <v>1040</v>
+      </c>
+      <c r="L20" s="14">
+        <v>1144</v>
+      </c>
+      <c r="M20" s="14">
+        <v>16.5</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="14">
+        <v>954</v>
+      </c>
+      <c r="E21" s="14">
+        <v>60</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="14">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14">
+        <v>580</v>
+      </c>
+      <c r="I21" s="14">
+        <v>300</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1022</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1128</v>
+      </c>
+      <c r="M21" s="14">
+        <v>18</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="14">
+        <v>954</v>
+      </c>
+      <c r="E22" s="14">
+        <v>60</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="14">
+        <v>10</v>
+      </c>
+      <c r="H22" s="14">
+        <v>550</v>
+      </c>
+      <c r="I22" s="14">
+        <v>300</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1061</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1177</v>
+      </c>
+      <c r="M22" s="14">
+        <v>16</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="14">
+        <v>954</v>
+      </c>
+      <c r="E23" s="14">
+        <v>60</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="14">
+        <v>10</v>
+      </c>
+      <c r="H23" s="14">
+        <v>530</v>
+      </c>
+      <c r="I23" s="14">
+        <v>300</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="14">
+        <v>1042</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1141</v>
+      </c>
+      <c r="M23" s="14">
+        <v>19</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="14">
+        <v>954</v>
+      </c>
+      <c r="E24" s="14">
+        <v>60</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="14">
+        <v>10</v>
+      </c>
+      <c r="H24" s="14">
+        <v>490</v>
+      </c>
+      <c r="I24" s="14">
+        <v>300</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1010</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1123</v>
+      </c>
+      <c r="M24" s="14">
+        <v>18</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="14">
+        <v>954</v>
+      </c>
+      <c r="E25" s="14">
+        <v>60</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="14">
+        <v>10</v>
+      </c>
+      <c r="H25" s="14">
+        <v>490</v>
+      </c>
+      <c r="I25" s="14">
+        <v>480</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1122</v>
+      </c>
+      <c r="M25" s="14">
+        <v>19</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22">
+        <v>4</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="22">
+        <v>952</v>
+      </c>
+      <c r="E26" s="22">
+        <v>120</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22">
+        <v>730</v>
+      </c>
+      <c r="I26" s="22">
+        <v>240</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="22">
+        <v>846</v>
+      </c>
+      <c r="L26" s="22">
+        <v>915</v>
+      </c>
+      <c r="M26" s="22">
+        <v>16.8</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="22">
+        <v>967</v>
+      </c>
+      <c r="E27" s="22">
+        <v>120</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22">
+        <v>730</v>
+      </c>
+      <c r="I27" s="22">
+        <v>240</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="22">
+        <v>801</v>
+      </c>
+      <c r="L27" s="22">
+        <v>875</v>
+      </c>
+      <c r="M27" s="22">
+        <v>11.2</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="22">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="22">
+        <v>997</v>
+      </c>
+      <c r="E28" s="22">
+        <v>120</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="22">
+        <v>730</v>
+      </c>
+      <c r="I28" s="22">
+        <v>240</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="22">
+        <v>792</v>
+      </c>
+      <c r="L28" s="22">
+        <v>861</v>
+      </c>
+      <c r="M28" s="22">
+        <v>9.6</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="22">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="22">
+        <v>1012</v>
+      </c>
+      <c r="E29" s="22">
+        <v>120</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22">
+        <v>730</v>
+      </c>
+      <c r="I29" s="22">
+        <v>240</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="22">
+        <v>775</v>
+      </c>
+      <c r="L29" s="22">
+        <v>843</v>
+      </c>
+      <c r="M29" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>5</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="16">
+        <v>970</v>
+      </c>
+      <c r="E30" s="16">
+        <v>60</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16">
+        <v>20</v>
+      </c>
+      <c r="I30" s="16">
+        <v>240</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="16">
+        <v>1130</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1178</v>
+      </c>
+      <c r="M30" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="16">
+        <v>970</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="16">
+        <v>450</v>
+      </c>
+      <c r="I31" s="16">
+        <v>240</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1183</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1210</v>
+      </c>
+      <c r="M31" s="16">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="16">
+        <v>970</v>
+      </c>
+      <c r="E32" s="16">
+        <v>60</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="16">
+        <v>500</v>
+      </c>
+      <c r="I32" s="16">
+        <v>240</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="16">
+        <v>1194</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1205</v>
+      </c>
+      <c r="M32" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="16">
+        <v>970</v>
+      </c>
+      <c r="E33" s="16">
+        <v>60</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16">
+        <v>550</v>
+      </c>
+      <c r="I33" s="16">
+        <v>240</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="16">
+        <v>1220</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1218</v>
+      </c>
+      <c r="M33" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="16">
+        <v>970</v>
+      </c>
+      <c r="E34" s="16">
+        <v>60</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="16">
+        <v>600</v>
+      </c>
+      <c r="I34" s="16">
+        <v>240</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="16">
+        <v>1181</v>
+      </c>
+      <c r="L34" s="16">
+        <v>1170</v>
+      </c>
+      <c r="M34" s="16">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="16">
+        <v>970</v>
+      </c>
+      <c r="E35" s="16">
+        <v>60</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16">
+        <v>650</v>
+      </c>
+      <c r="I35" s="16">
+        <v>240</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="16">
+        <v>1152</v>
+      </c>
+      <c r="L35" s="16">
+        <v>1124</v>
+      </c>
+      <c r="M35" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>6</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="24">
+        <v>700</v>
+      </c>
+      <c r="L36" s="24">
+        <v>790</v>
+      </c>
+      <c r="M36" s="24">
+        <v>12.81</v>
+      </c>
+      <c r="N36" s="24">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="24">
+        <v>920</v>
+      </c>
+      <c r="E37" s="24">
+        <v>60</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="24">
+        <v>450</v>
+      </c>
+      <c r="I37" s="24">
+        <v>240</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="24">
+        <v>890</v>
+      </c>
+      <c r="L37" s="24">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="24">
+        <v>15</v>
+      </c>
+      <c r="N37" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="24">
+        <v>920</v>
+      </c>
+      <c r="E38" s="24">
+        <v>60</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="24">
+        <v>500</v>
+      </c>
+      <c r="I38" s="24">
+        <v>240</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="24">
+        <v>960</v>
+      </c>
+      <c r="L38" s="24">
+        <v>1070</v>
+      </c>
+      <c r="M38" s="24">
+        <v>13.82</v>
+      </c>
+      <c r="N38" s="24">
+        <v>38.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="24">
+        <v>960</v>
+      </c>
+      <c r="E39" s="24">
+        <v>60</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="24">
+        <v>450</v>
+      </c>
+      <c r="I39" s="24">
+        <v>240</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="24">
+        <v>960</v>
+      </c>
+      <c r="L39" s="24">
+        <v>1050</v>
+      </c>
+      <c r="M39" s="24">
+        <v>15.48</v>
+      </c>
+      <c r="N39" s="24">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="24">
+        <v>960</v>
+      </c>
+      <c r="E40" s="24">
+        <v>60</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="24">
+        <v>500</v>
+      </c>
+      <c r="I40" s="24">
+        <v>240</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="24">
+        <v>1050</v>
+      </c>
+      <c r="L40" s="24">
+        <v>1120</v>
+      </c>
+      <c r="M40" s="24">
+        <v>16.28</v>
+      </c>
+      <c r="N40" s="24">
+        <v>46.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="24">
+        <v>60</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="24">
+        <v>450</v>
+      </c>
+      <c r="I41" s="24">
+        <v>240</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="24">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="24">
+        <v>1100</v>
+      </c>
+      <c r="M41" s="24">
+        <v>12.08</v>
+      </c>
+      <c r="N41" s="24">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="24">
+        <v>60</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="24">
+        <v>500</v>
+      </c>
+      <c r="I42" s="24">
+        <v>240</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="24">
+        <v>1020</v>
+      </c>
+      <c r="L42" s="24">
+        <v>1100</v>
+      </c>
+      <c r="M42" s="24">
+        <v>10.23</v>
+      </c>
+      <c r="N42" s="24">
+        <v>30.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26">
+        <v>7</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="26">
+        <v>780</v>
+      </c>
+      <c r="E43" s="26">
+        <v>90</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="K43" s="26">
+        <v>830</v>
+      </c>
+      <c r="L43" s="26">
+        <v>898</v>
+      </c>
+      <c r="M43" s="26">
+        <v>10.5</v>
+      </c>
+      <c r="N43" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="26">
+        <v>940</v>
+      </c>
+      <c r="E44" s="26">
+        <v>60</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="26">
+        <v>530</v>
+      </c>
+      <c r="I44" s="26">
+        <v>240</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="26">
+        <v>979</v>
+      </c>
+      <c r="L44" s="26">
+        <v>1054</v>
+      </c>
+      <c r="M44" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="N44" s="26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="26">
+        <v>940</v>
+      </c>
+      <c r="E45" s="26">
+        <v>60</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="26">
+        <v>600</v>
+      </c>
+      <c r="I45" s="26">
+        <v>240</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="26">
+        <v>926</v>
+      </c>
+      <c r="L45" s="26">
+        <v>972</v>
+      </c>
+      <c r="M45" s="26">
+        <v>13</v>
+      </c>
+      <c r="N45" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="26">
+        <v>940</v>
+      </c>
+      <c r="E46" s="26">
+        <v>60</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="26">
+        <v>650</v>
+      </c>
+      <c r="I46" s="26">
+        <v>240</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="26">
+        <v>936</v>
+      </c>
+      <c r="L46" s="26">
+        <v>971</v>
+      </c>
+      <c r="M46" s="26">
+        <v>13.5</v>
+      </c>
+      <c r="N46" s="26">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="26">
+        <v>940</v>
+      </c>
+      <c r="E47" s="26">
+        <v>60</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="26">
+        <v>700</v>
+      </c>
+      <c r="I47" s="26">
+        <v>240</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="26">
+        <v>850</v>
+      </c>
+      <c r="L47" s="26">
+        <v>929</v>
+      </c>
+      <c r="M47" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="N47" s="26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="26">
+        <v>940</v>
+      </c>
+      <c r="E48" s="26">
+        <v>60</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="26">
+        <v>760</v>
+      </c>
+      <c r="I48" s="26">
+        <v>240</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="26">
+        <v>839</v>
+      </c>
+      <c r="L48" s="26">
+        <v>913</v>
+      </c>
+      <c r="M48" s="26">
+        <v>12</v>
+      </c>
+      <c r="N48" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="26">
+        <v>940</v>
+      </c>
+      <c r="E49" s="26">
+        <v>60</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="26">
+        <v>530</v>
+      </c>
+      <c r="I49" s="26">
+        <v>240</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="26">
+        <v>844</v>
+      </c>
+      <c r="L49" s="26">
+        <v>918</v>
+      </c>
+      <c r="M49" s="26">
+        <v>10</v>
+      </c>
+      <c r="N49" s="26">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28">
+        <v>8</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="28">
+        <v>914</v>
+      </c>
+      <c r="L50" s="28">
+        <v>2001</v>
+      </c>
+      <c r="M50" s="28">
+        <v>19</v>
+      </c>
+      <c r="N50" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="28">
+        <v>930</v>
+      </c>
+      <c r="E51" s="28">
         <v>30</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="10">
-        <v>470</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="F51" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="28">
+        <v>20</v>
+      </c>
+      <c r="I51" s="28">
+        <v>120</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="28">
+        <v>995</v>
+      </c>
+      <c r="L51" s="28">
+        <v>1757</v>
+      </c>
+      <c r="M51" s="28">
+        <v>15.57</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="28">
+        <v>930</v>
+      </c>
+      <c r="E52" s="28">
+        <v>30</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="28">
+        <v>500</v>
+      </c>
+      <c r="I52" s="28">
+        <v>120</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="28">
+        <v>1391</v>
+      </c>
+      <c r="L52" s="28">
+        <v>2010</v>
+      </c>
+      <c r="M52" s="28">
+        <v>10.95</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="28">
+        <v>930</v>
+      </c>
+      <c r="E53" s="28">
+        <v>30</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="28">
+        <v>600</v>
+      </c>
+      <c r="I53" s="28">
+        <v>120</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="28">
+        <v>1052</v>
+      </c>
+      <c r="L53" s="28">
+        <v>1798</v>
+      </c>
+      <c r="M53" s="28">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="28">
+        <v>930</v>
+      </c>
+      <c r="E54" s="28">
+        <v>30</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="28">
+        <v>700</v>
+      </c>
+      <c r="I54" s="28">
+        <v>120</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="28">
+        <v>1198</v>
+      </c>
+      <c r="L54" s="28">
+        <v>1664</v>
+      </c>
+      <c r="M54" s="28">
+        <v>10.41</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="28">
+        <v>1030</v>
+      </c>
+      <c r="E55" s="28">
+        <v>30</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="29"/>
+      <c r="H55" s="28">
+        <v>500</v>
+      </c>
+      <c r="I55" s="28">
+        <v>120</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="28">
+        <v>1026</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="28">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="N55" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="28">
+        <v>1030</v>
+      </c>
+      <c r="E56" s="28">
+        <v>30</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="29"/>
+      <c r="H56" s="28">
+        <v>600</v>
+      </c>
+      <c r="I56" s="28">
+        <v>120</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="28">
+        <v>961</v>
+      </c>
+      <c r="L56" s="28">
+        <v>2001</v>
+      </c>
+      <c r="M56" s="28">
+        <v>24.47</v>
+      </c>
+      <c r="N56" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="28">
+        <v>1030</v>
+      </c>
+      <c r="E57" s="28">
+        <v>30</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="28">
+        <v>700</v>
+      </c>
+      <c r="I57" s="28">
+        <v>120</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="28">
+        <v>1189</v>
+      </c>
+      <c r="L57" s="28">
+        <v>1994</v>
+      </c>
+      <c r="M57" s="28">
+        <v>12.55</v>
+      </c>
+      <c r="N57" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22">
+        <v>9</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="22">
+        <v>1030</v>
+      </c>
+      <c r="E58" s="22">
+        <v>60</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="23"/>
+      <c r="H58" s="22">
+        <v>530</v>
+      </c>
+      <c r="I58" s="22">
         <v>240</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="10">
-        <v>935</v>
-      </c>
-      <c r="L17" s="14">
+      <c r="J58" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="22">
+        <v>848</v>
+      </c>
+      <c r="L58" s="22">
+        <v>949</v>
+      </c>
+      <c r="M58" s="22">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="22">
+        <v>920</v>
+      </c>
+      <c r="E59" s="22">
+        <v>60</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="23"/>
+      <c r="H59" s="22">
+        <v>530</v>
+      </c>
+      <c r="I59" s="22">
+        <v>240</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="22">
+        <v>909</v>
+      </c>
+      <c r="L59" s="22">
         <v>986</v>
       </c>
-      <c r="M17" s="10">
-        <v>12</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="10">
-        <v>930</v>
-      </c>
-      <c r="E18" s="10">
-        <v>30</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="10">
-        <v>470</v>
-      </c>
-      <c r="I18" s="10">
-        <v>240</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="10">
-        <v>967</v>
-      </c>
-      <c r="L18" s="14">
-        <v>1047</v>
-      </c>
-      <c r="M18" s="10">
-        <v>11</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="20"/>
-    </row>
-    <row r="19" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="10">
-        <v>960</v>
-      </c>
-      <c r="E19" s="10">
-        <v>30</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="10">
-        <v>470</v>
-      </c>
-      <c r="I19" s="10">
-        <v>240</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1003</v>
-      </c>
-      <c r="L19" s="14">
-        <v>1078</v>
-      </c>
-      <c r="M19" s="10">
-        <v>11</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="10">
-        <v>960</v>
-      </c>
-      <c r="E20" s="10">
-        <v>30</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="10">
-        <v>510</v>
-      </c>
-      <c r="I20" s="10">
-        <v>240</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="10">
-        <v>952</v>
-      </c>
-      <c r="L20" s="14">
-        <v>1039</v>
-      </c>
-      <c r="M20" s="10">
-        <v>13</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="10">
-        <v>960</v>
-      </c>
-      <c r="E21" s="10">
-        <v>30</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="10">
-        <v>550</v>
-      </c>
-      <c r="I21" s="10">
-        <v>240</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="10">
-        <v>927</v>
-      </c>
-      <c r="L21" s="14">
-        <v>993</v>
-      </c>
-      <c r="M21" s="10">
-        <v>14</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="10">
-        <v>960</v>
-      </c>
-      <c r="E22" s="10">
-        <v>30</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="10">
-        <v>590</v>
-      </c>
-      <c r="I22" s="10">
-        <v>240</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="10">
-        <v>913</v>
-      </c>
-      <c r="L22" s="14">
-        <v>970</v>
-      </c>
-      <c r="M22" s="10">
-        <v>14</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="20"/>
-    </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>3</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="15">
-        <v>954</v>
-      </c>
-      <c r="E23" s="15">
-        <v>60</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="15">
-        <v>10</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K23" s="15">
-        <v>968</v>
-      </c>
-      <c r="L23" s="15">
-        <v>1098</v>
-      </c>
-      <c r="M23" s="15">
-        <v>18</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="15">
-        <v>954</v>
-      </c>
-      <c r="E24" s="15">
-        <v>60</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="15">
-        <v>10</v>
-      </c>
-      <c r="H24" s="15">
-        <v>550</v>
-      </c>
-      <c r="I24" s="15">
-        <v>270</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="15">
-        <v>1056</v>
-      </c>
-      <c r="L24" s="15">
-        <v>1157</v>
-      </c>
-      <c r="M24" s="15">
-        <v>16</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="15">
-        <v>954</v>
-      </c>
-      <c r="E25" s="15">
-        <v>60</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="15">
-        <v>15</v>
-      </c>
-      <c r="H25" s="15">
-        <v>550</v>
-      </c>
-      <c r="I25" s="15">
-        <v>270</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="15">
-        <v>1054</v>
-      </c>
-      <c r="L25" s="15">
-        <v>1147</v>
-      </c>
-      <c r="M25" s="15">
-        <v>17.5</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="15">
-        <v>954</v>
-      </c>
-      <c r="E26" s="15">
-        <v>60</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="15">
-        <v>20</v>
-      </c>
-      <c r="H26" s="15">
-        <v>550</v>
-      </c>
-      <c r="I26" s="15">
-        <v>270</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="15">
-        <v>1040</v>
-      </c>
-      <c r="L26" s="15">
-        <v>1144</v>
-      </c>
-      <c r="M26" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="15">
-        <v>954</v>
-      </c>
-      <c r="E27" s="15">
-        <v>60</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="15">
-        <v>10</v>
-      </c>
-      <c r="H27" s="15">
-        <v>580</v>
-      </c>
-      <c r="I27" s="15">
-        <v>300</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="15">
-        <v>1022</v>
-      </c>
-      <c r="L27" s="15">
-        <v>1128</v>
-      </c>
-      <c r="M27" s="15">
-        <v>18</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="15">
-        <v>954</v>
-      </c>
-      <c r="E28" s="15">
-        <v>60</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="15">
-        <v>10</v>
-      </c>
-      <c r="H28" s="15">
-        <v>550</v>
-      </c>
-      <c r="I28" s="15">
-        <v>300</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="15">
-        <v>1061</v>
-      </c>
-      <c r="L28" s="15">
-        <v>1177</v>
-      </c>
-      <c r="M28" s="15">
-        <v>16</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="15">
-        <v>954</v>
-      </c>
-      <c r="E29" s="15">
-        <v>60</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="15">
-        <v>10</v>
-      </c>
-      <c r="H29" s="15">
-        <v>530</v>
-      </c>
-      <c r="I29" s="15">
-        <v>300</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="15">
-        <v>1042</v>
-      </c>
-      <c r="L29" s="15">
-        <v>1141</v>
-      </c>
-      <c r="M29" s="15">
-        <v>19</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="15">
-        <v>954</v>
-      </c>
-      <c r="E30" s="15">
-        <v>60</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="15">
-        <v>10</v>
-      </c>
-      <c r="H30" s="15">
-        <v>490</v>
-      </c>
-      <c r="I30" s="15">
-        <v>300</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="15">
-        <v>1010</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1123</v>
-      </c>
-      <c r="M30" s="15">
-        <v>18</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="15">
-        <v>954</v>
-      </c>
-      <c r="E31" s="15">
-        <v>60</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="15">
-        <v>10</v>
-      </c>
-      <c r="H31" s="15">
-        <v>490</v>
-      </c>
-      <c r="I31" s="15">
-        <v>480</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="15">
-        <v>1000</v>
-      </c>
-      <c r="L31" s="15">
-        <v>1122</v>
-      </c>
-      <c r="M31" s="15">
-        <v>19</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="1">
-        <v>952</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="M59" s="22">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="22">
+        <v>700</v>
+      </c>
+      <c r="E60" s="22">
         <v>120</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="1">
-        <v>730</v>
-      </c>
-      <c r="I32" s="1">
-        <v>240</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="1">
-        <v>846</v>
-      </c>
-      <c r="L32" s="11">
-        <v>915</v>
-      </c>
-      <c r="M32" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D33" s="1">
-        <v>967</v>
-      </c>
-      <c r="E33" s="3">
-        <v>120</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="1">
-        <v>730</v>
-      </c>
-      <c r="I33" s="1">
-        <v>240</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1">
-        <v>801</v>
-      </c>
-      <c r="L33" s="11">
-        <v>875</v>
-      </c>
-      <c r="M33" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D34" s="1">
-        <v>997</v>
-      </c>
-      <c r="E34" s="3">
-        <v>120</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="1">
-        <v>730</v>
-      </c>
-      <c r="I34" s="1">
-        <v>240</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="1">
-        <v>792</v>
-      </c>
-      <c r="L34" s="11">
-        <v>861</v>
-      </c>
-      <c r="M34" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="1">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D35" s="1">
-        <v>1012</v>
-      </c>
-      <c r="E35" s="3">
-        <v>120</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="1">
-        <v>730</v>
-      </c>
-      <c r="I35" s="1">
-        <v>240</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="1">
-        <v>775</v>
-      </c>
-      <c r="L35" s="11">
-        <v>843</v>
-      </c>
-      <c r="M35" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="1">
-        <v>103</v>
+      <c r="F60" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="22">
+        <v>926</v>
+      </c>
+      <c r="L60" s="22">
+        <v>987</v>
+      </c>
+      <c r="M60" s="22">
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="Q16:Q18"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="Q8:Q11"/>
-    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="Q6:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2484,7 +3627,7 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2522,7 +3665,7 @@
       <c r="G2" s="2">
         <v>890</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>1000</v>
       </c>
       <c r="I2" s="2">
@@ -2556,7 +3699,7 @@
       <c r="G3" s="2">
         <v>960</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>1070</v>
       </c>
       <c r="I3" s="2">
@@ -2590,7 +3733,7 @@
       <c r="G4" s="2">
         <v>960</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>1050</v>
       </c>
       <c r="I4" s="2">
@@ -2624,7 +3767,7 @@
       <c r="G5" s="2">
         <v>1050</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1120</v>
       </c>
       <c r="I5" s="2">
@@ -2658,7 +3801,7 @@
       <c r="G6" s="2">
         <v>1000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>1100</v>
       </c>
       <c r="I6" s="2">
@@ -2692,7 +3835,7 @@
       <c r="G7" s="2">
         <v>1020</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>1100</v>
       </c>
       <c r="I7" s="2">
@@ -2705,498 +3848,498 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>870</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>0.5</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="13">
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="12">
         <v>887</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>5.22</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>900</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>0.5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="13">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="12">
         <v>925</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>5.58</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>930</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="13">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12">
         <v>985</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>5.81</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>960</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>0.5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="12">
         <v>962</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>3.78</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>930</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.5</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
         <v>470</v>
       </c>
-      <c r="E12" s="9">
-        <v>4</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="13">
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="12">
         <v>1055</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>4.82</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>930</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>0.5</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
         <v>510</v>
       </c>
-      <c r="E13" s="9">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13">
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="12">
         <v>1010</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>4.4800000000000004</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>930</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>0.5</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
         <v>550</v>
       </c>
-      <c r="E14" s="9">
-        <v>4</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="13">
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12">
         <v>995</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>5.25</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="J14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>930</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>0.5</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
         <v>590</v>
       </c>
-      <c r="E15" s="9">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="13">
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="12">
         <v>946</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>6.03</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>870</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>0.5</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
         <v>470</v>
       </c>
-      <c r="E16" s="10">
-        <v>4</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="E16" s="9">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="9">
         <v>902</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>944</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>14</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="J16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="9">
         <v>1</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>900</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>0.5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
         <v>470</v>
       </c>
-      <c r="E17" s="10">
-        <v>4</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="E17" s="9">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="9">
         <v>935</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>986</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>12</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="10">
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>930</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>0.5</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9">
         <v>470</v>
       </c>
-      <c r="E18" s="10">
-        <v>4</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9">
         <v>967</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>1047</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>11</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="10">
+      <c r="J18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="20"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>960</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>0.5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
         <v>470</v>
       </c>
-      <c r="E19" s="10">
-        <v>4</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="9">
         <v>1003</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>1078</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>11</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="10" t="s">
+      <c r="J19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>960</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>0.5</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
         <v>510</v>
       </c>
-      <c r="E20" s="10">
-        <v>4</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9">
         <v>952</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>1039</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>13</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="J20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="20"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>960</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>0.5</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9">
         <v>550</v>
       </c>
-      <c r="E21" s="10">
-        <v>4</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="E21" s="9">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="9">
         <v>927</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>993</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>14</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="J21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="9">
         <v>1</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>960</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>0.5</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9">
         <v>590</v>
       </c>
-      <c r="E22" s="10">
-        <v>4</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="E22" s="9">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="9">
         <v>913</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>970</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>14</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="10">
+      <c r="J22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="9">
         <v>1</v>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3228,235 +4371,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>910</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
         <v>510</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>910</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>590</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>910</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>550</v>
       </c>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>950</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
         <v>590</v>
       </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>950</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>550</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>950</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>510</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>990</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
         <v>550</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
         <v>990</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>510</v>
       </c>
-      <c r="F9" s="6">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>990</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>590</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
